--- a/doc/production/BOM/bow_other.xlsx
+++ b/doc/production/BOM/bow_other.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhuJiatao\my_project\HeatViewer\doc\production\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA69CAB-CCC3-49D1-B7A6-F540BB39752A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DC233B-BFCD-49B7-B64C-D3310C3E23C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="2580" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="1890" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,13 @@
   </si>
   <si>
     <t>1.8寸液晶屏 1.8寸TFT LCD SPI串口TFT彩屏128x160 st7735-淘宝网</t>
+  </si>
+  <si>
+    <t>FFC/FPC软排线 扁平液晶连接线 0.5/1.0mm间距4P5P6P10P20P40P60P-淘宝网</t>
+  </si>
+  <si>
+    <t>pfc排线，0.5mm，20p，15cm，同向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -442,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,11 +624,26 @@
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1" display="https://item.taobao.com/item.htm?_u=1207b9sukhd830&amp;id=522576364570&amp;spm=a1z09.2.0.0.6a0b2e8durT2D2" xr:uid="{80BC646E-671E-4ED5-B9EA-2B5897F8B303}"/>
     <hyperlink ref="D12" r:id="rId2" display="https://item.taobao.com/item.htm?_u=1207b9sukh603f&amp;id=522810152497&amp;skuId=4663658166508&amp;spm=a1z09.2.0.0.6a0b2e8durT2D2" xr:uid="{497C145B-BA74-4DC1-8624-90B3E3D10883}"/>
+    <hyperlink ref="D14" r:id="rId3" display="https://item.taobao.com/item.htm?_u=2207b9sukh15e7&amp;id=675765050898&amp;spm=a1z09.2.0.0.7cdf2e8d3gdXEc&amp;skuId=4854765532479" xr:uid="{665281FA-64A7-49AB-903E-9223C7F7F4D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/production/BOM/bow_other.xlsx
+++ b/doc/production/BOM/bow_other.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhuJiatao\my_project\HeatViewer\doc\production\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DC233B-BFCD-49B7-B64C-D3310C3E23C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879A21F0-5040-4818-8CA5-D3E5E9568D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1890" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="2175" windowWidth="13455" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,13 @@
   </si>
   <si>
     <t>pfc排线，0.5mm，20p，15cm，同向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OV7725摄像头 7725模组模块 30万像素 适用于STM32 ESP32 K210-淘宝网</t>
+  </si>
+  <si>
+    <t>ov7725，2cm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -638,12 +645,27 @@
         <v>21</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1" display="https://item.taobao.com/item.htm?_u=1207b9sukhd830&amp;id=522576364570&amp;spm=a1z09.2.0.0.6a0b2e8durT2D2" xr:uid="{80BC646E-671E-4ED5-B9EA-2B5897F8B303}"/>
     <hyperlink ref="D12" r:id="rId2" display="https://item.taobao.com/item.htm?_u=1207b9sukh603f&amp;id=522810152497&amp;skuId=4663658166508&amp;spm=a1z09.2.0.0.6a0b2e8durT2D2" xr:uid="{497C145B-BA74-4DC1-8624-90B3E3D10883}"/>
     <hyperlink ref="D14" r:id="rId3" display="https://item.taobao.com/item.htm?_u=2207b9sukh15e7&amp;id=675765050898&amp;spm=a1z09.2.0.0.7cdf2e8d3gdXEc&amp;skuId=4854765532479" xr:uid="{665281FA-64A7-49AB-903E-9223C7F7F4D1}"/>
+    <hyperlink ref="D15" r:id="rId4" display="https://item.taobao.com/item.htm?_u=7207b9sukhbafa&amp;id=642622087960&amp;skuId=5227315767937&amp;spm=a1z09.2.0.0.4f292e8dECqbz8" xr:uid="{96F76D6F-7F58-41F4-98D3-5E168CBB6864}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
